--- a/albumreviews_06.04.2023 (4).xlsx
+++ b/albumreviews_06.04.2023 (4).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
   <si>
     <t>Title</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>wsasdwds</t>
+  </si>
+  <si>
+    <t>awdsdads</t>
+  </si>
+  <si>
+    <t>ssss</t>
   </si>
 </sst>
 </file>
@@ -598,10 +604,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,6 +685,23 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45028</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
